--- a/data/trans_orig/P1435-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>77581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62651</v>
+        <v>62576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92851</v>
+        <v>92908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1659534602934426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1340155788931156</v>
+        <v>0.1338552633535917</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1986169978493986</v>
+        <v>0.1987379478462047</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>389908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374638</v>
+        <v>374581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404838</v>
+        <v>404913</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8340465397065574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8013830021506014</v>
+        <v>0.8012620521537953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8659844211068844</v>
+        <v>0.8661447366464082</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>93267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78127</v>
+        <v>75609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114675</v>
+        <v>111810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1491100505277644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1249050740175749</v>
+        <v>0.1208787554998811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1833351972764141</v>
+        <v>0.1787541436775623</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>532227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>510819</v>
+        <v>513684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>547367</v>
+        <v>549885</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8508899494722356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8166648027235859</v>
+        <v>0.8212458563224377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8750949259824251</v>
+        <v>0.879121244500119</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>61733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48385</v>
+        <v>46673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78515</v>
+        <v>78147</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08950127502716004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07014898746354008</v>
+        <v>0.06766748729734251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1138326575862264</v>
+        <v>0.1132982762625728</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>628011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611229</v>
+        <v>611597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>641359</v>
+        <v>643071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.91049872497284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8861673424137738</v>
+        <v>0.8867017237374275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9298510125364601</v>
+        <v>0.9323325127026575</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>18824</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12337</v>
+        <v>11767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29359</v>
+        <v>29104</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03650512880458587</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0239251577776469</v>
+        <v>0.02281925051334365</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05693770513800987</v>
+        <v>0.05644269558747029</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>496818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486283</v>
+        <v>486538</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>503305</v>
+        <v>503875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9634948711954141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9430622948619906</v>
+        <v>0.9435573044125302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9760748422223532</v>
+        <v>0.9771807494866565</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>2923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8823</v>
+        <v>7942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007236333482522127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001979138232666014</v>
+        <v>0.001975517826732347</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02183899014640412</v>
+        <v>0.01965789281265194</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>401063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>395163</v>
+        <v>396044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>403186</v>
+        <v>403188</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9927636665174778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9781610098535959</v>
+        <v>0.9803421071873479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.998020861767334</v>
+        <v>0.9980244821732677</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>3400</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7817</v>
+        <v>8151</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009914006097810029</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002529448756142628</v>
+        <v>0.002577590140661309</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02279333045396174</v>
+        <v>0.02376948553906508</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>339534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>335117</v>
+        <v>334783</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>342067</v>
+        <v>342050</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.99008599390219</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9772066695460383</v>
+        <v>0.9762305144609349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9974705512438573</v>
+        <v>0.9974224098593387</v>
       </c>
     </row>
     <row r="21">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8666</v>
+        <v>7616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007239888153667455</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02595381244865728</v>
+        <v>0.02280980560179493</v>
       </c>
     </row>
     <row r="23">
@@ -1199,7 +1199,7 @@
         <v>331491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>325242</v>
+        <v>326292</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>333908</v>
@@ -1208,7 +1208,7 @@
         <v>0.9927601118463325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9740461875513428</v>
+        <v>0.9771901943982051</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -1261,19 +1261,19 @@
         <v>260146</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07698458953858449</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>3119051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3088925</v>
+        <v>3085855</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3150611</v>
+        <v>3148457</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9230154104614156</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9141004143798394</v>
+        <v>0.9131918677201458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9323549905026531</v>
+        <v>0.931717450374045</v>
       </c>
     </row>
     <row r="27">
@@ -1473,19 +1473,19 @@
         <v>45364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33769</v>
+        <v>32978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59368</v>
+        <v>58207</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1054415937634177</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07849069842372075</v>
+        <v>0.07665144587316701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1379910340075844</v>
+        <v>0.1352928626524337</v>
       </c>
     </row>
     <row r="5">
@@ -1502,19 +1502,19 @@
         <v>384866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>370862</v>
+        <v>372023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396461</v>
+        <v>397252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8945584062365823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8620089659924156</v>
+        <v>0.8647071373475663</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9215093015762793</v>
+        <v>0.923348554126833</v>
       </c>
     </row>
     <row r="6">
@@ -1564,19 +1564,19 @@
         <v>36454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26709</v>
+        <v>25757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49220</v>
+        <v>49113</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05973512340450587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04376615185946929</v>
+        <v>0.04220677614010832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08065529899292583</v>
+        <v>0.08047985649413052</v>
       </c>
     </row>
     <row r="8">
@@ -1593,19 +1593,19 @@
         <v>573801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>561035</v>
+        <v>561142</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>583546</v>
+        <v>584498</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9402648765954941</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9193447010070742</v>
+        <v>0.9195201435058696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9562338481405313</v>
+        <v>0.9577932238598917</v>
       </c>
     </row>
     <row r="9">
@@ -1655,19 +1655,19 @@
         <v>45626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32923</v>
+        <v>34242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60618</v>
+        <v>60040</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06430066868300512</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04639819772321548</v>
+        <v>0.04825667017368061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08542837470472847</v>
+        <v>0.08461483698713271</v>
       </c>
     </row>
     <row r="11">
@@ -1684,19 +1684,19 @@
         <v>663948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>648956</v>
+        <v>649534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>676651</v>
+        <v>675332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9356993313169949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9145716252952717</v>
+        <v>0.9153851630128672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9536018022767846</v>
+        <v>0.9517433298263192</v>
       </c>
     </row>
     <row r="12">
@@ -1746,19 +1746,19 @@
         <v>9966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4530</v>
+        <v>5361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18005</v>
+        <v>19756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01622353350024331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007374475429694021</v>
+        <v>0.008727289136666443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02931210817259799</v>
+        <v>0.03216140878827192</v>
       </c>
     </row>
     <row r="14">
@@ -1775,19 +1775,19 @@
         <v>604298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>596259</v>
+        <v>594508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609734</v>
+        <v>608903</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9837764664997567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.970687891827402</v>
+        <v>0.9678385912117281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.992625524570306</v>
+        <v>0.9912727108633336</v>
       </c>
     </row>
     <row r="15">
@@ -2062,19 +2062,19 @@
         <v>137409</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117447</v>
+        <v>113818</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>162576</v>
+        <v>162079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03865137588288885</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03303629951640324</v>
+        <v>0.03201556469607927</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04573050022860073</v>
+        <v>0.04559053293270065</v>
       </c>
     </row>
     <row r="26">
@@ -2091,19 +2091,19 @@
         <v>3417689</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3392522</v>
+        <v>3393019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3437651</v>
+        <v>3441280</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9613486241171112</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9542694997713991</v>
+        <v>0.9544094670672991</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9669637004835966</v>
+        <v>0.9679844353039206</v>
       </c>
     </row>
     <row r="27">
@@ -2274,19 +2274,19 @@
         <v>21539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13911</v>
+        <v>13308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32437</v>
+        <v>31919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.054424855698528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03515076651477413</v>
+        <v>0.03362655380811598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08196314816243036</v>
+        <v>0.08065403071203646</v>
       </c>
     </row>
     <row r="5">
@@ -2303,19 +2303,19 @@
         <v>374216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>363318</v>
+        <v>363836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381844</v>
+        <v>382447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.945575144301472</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9180368518375697</v>
+        <v>0.9193459692879635</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9648492334852259</v>
+        <v>0.966373446191884</v>
       </c>
     </row>
     <row r="6">
@@ -2365,19 +2365,19 @@
         <v>22715</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15123</v>
+        <v>14994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32454</v>
+        <v>32796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0403067637190862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02683496467150672</v>
+        <v>0.02660669074053904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05758986774846157</v>
+        <v>0.05819597712551423</v>
       </c>
     </row>
     <row r="8">
@@ -2394,19 +2394,19 @@
         <v>540829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>531090</v>
+        <v>530748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>548421</v>
+        <v>548550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9596932362809137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9424101322515385</v>
+        <v>0.9418040228744861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9731650353284933</v>
+        <v>0.973393309259461</v>
       </c>
     </row>
     <row r="9">
@@ -2456,19 +2456,19 @@
         <v>11908</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6596</v>
+        <v>6495</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20769</v>
+        <v>20716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01800534332739979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00997288883974359</v>
+        <v>0.009820534762149415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03140189764973152</v>
+        <v>0.03132134673350218</v>
       </c>
     </row>
     <row r="11">
@@ -2485,19 +2485,19 @@
         <v>649478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640617</v>
+        <v>640670</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654790</v>
+        <v>654891</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9819946566726002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9685981023502683</v>
+        <v>0.9686786532664976</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9900271111602564</v>
+        <v>0.9901794652378505</v>
       </c>
     </row>
     <row r="12">
@@ -2547,19 +2547,19 @@
         <v>10226</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5029</v>
+        <v>5130</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17609</v>
+        <v>17494</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01575461077223586</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007747588173703335</v>
+        <v>0.007903778657048735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02712921488964624</v>
+        <v>0.0269518035201521</v>
       </c>
     </row>
     <row r="14">
@@ -2576,19 +2576,19 @@
         <v>638851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>631468</v>
+        <v>631583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>644048</v>
+        <v>643947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9842453892277642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9728707851103535</v>
+        <v>0.9730481964798479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922524118262965</v>
+        <v>0.9920962213429512</v>
       </c>
     </row>
     <row r="15">
@@ -2863,19 +2863,19 @@
         <v>66388</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51188</v>
+        <v>52184</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83920</v>
+        <v>83238</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0187296347330903</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01444121707289562</v>
+        <v>0.01472226793829834</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0236758387175055</v>
+        <v>0.02348346981164601</v>
       </c>
     </row>
     <row r="26">
@@ -2892,19 +2892,19 @@
         <v>3478154</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3460622</v>
+        <v>3461304</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3493354</v>
+        <v>3492358</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9812703652669097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9763241612824946</v>
+        <v>0.976516530188354</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9855587829271044</v>
+        <v>0.9852777320617018</v>
       </c>
     </row>
     <row r="27">
@@ -3075,19 +3075,19 @@
         <v>40891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24943</v>
+        <v>26039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58500</v>
+        <v>60301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1127997160778015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06880468555407923</v>
+        <v>0.07183015971062737</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1613743975141656</v>
+        <v>0.1663411657824944</v>
       </c>
     </row>
     <row r="5">
@@ -3104,19 +3104,19 @@
         <v>321621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>304012</v>
+        <v>302211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>337569</v>
+        <v>336473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8872002839221984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8386256024858342</v>
+        <v>0.8336588342175054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9311953144459207</v>
+        <v>0.9281698402893725</v>
       </c>
     </row>
     <row r="6">
@@ -3166,19 +3166,19 @@
         <v>66455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50762</v>
+        <v>52435</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81563</v>
+        <v>85338</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1333179827259036</v>
+        <v>0.1333179827259037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1018351695963226</v>
+        <v>0.1051915727993116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1636262348440287</v>
+        <v>0.1711993884284354</v>
       </c>
     </row>
     <row r="8">
@@ -3195,19 +3195,19 @@
         <v>432014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>416906</v>
+        <v>413131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447707</v>
+        <v>446034</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8666820172740963</v>
+        <v>0.8666820172740964</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8363737651559715</v>
+        <v>0.8288006115715649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.898164830403678</v>
+        <v>0.8948084272006885</v>
       </c>
     </row>
     <row r="9">
@@ -3257,19 +3257,19 @@
         <v>73176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60970</v>
+        <v>61305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88691</v>
+        <v>86998</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1183584300254625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09861713248547481</v>
+        <v>0.09915858672905611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1434534398088543</v>
+        <v>0.1407159833410025</v>
       </c>
     </row>
     <row r="11">
@@ -3286,19 +3286,19 @@
         <v>545078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529563</v>
+        <v>531256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>557284</v>
+        <v>556949</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8816415699745376</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8565465601911457</v>
+        <v>0.8592840166589969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9013828675145252</v>
+        <v>0.9008414132709437</v>
       </c>
     </row>
     <row r="12">
@@ -3348,19 +3348,19 @@
         <v>46073</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36420</v>
+        <v>36797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57285</v>
+        <v>58044</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06267173937369436</v>
+        <v>0.06267173937369437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04954208644948406</v>
+        <v>0.05005407259592504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07792332744367154</v>
+        <v>0.0789567342565515</v>
       </c>
     </row>
     <row r="14">
@@ -3377,19 +3377,19 @@
         <v>689069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>677857</v>
+        <v>677098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698722</v>
+        <v>698345</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9373282606263056</v>
+        <v>0.9373282606263057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9220766725563285</v>
+        <v>0.9210432657434486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9504579135505159</v>
+        <v>0.9499459274040748</v>
       </c>
     </row>
     <row r="15">
@@ -3439,19 +3439,19 @@
         <v>2338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>669</v>
+        <v>555</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5630</v>
+        <v>5232</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003853871461829422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001103038577913935</v>
+        <v>0.000915168546158326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009278332854227866</v>
+        <v>0.008622705756550362</v>
       </c>
     </row>
     <row r="17">
@@ -3468,19 +3468,19 @@
         <v>604427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>601135</v>
+        <v>601533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606096</v>
+        <v>606210</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9961461285381704</v>
+        <v>0.9961461285381709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.990721667145772</v>
+        <v>0.9913772942434499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9988969614220861</v>
+        <v>0.9990848314538416</v>
       </c>
     </row>
     <row r="18">
@@ -3680,19 +3680,19 @@
         <v>228933</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>200026</v>
+        <v>199669</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>260858</v>
+        <v>260110</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06148073147974337</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05371776213085682</v>
+        <v>0.05362189258272029</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07005433430636625</v>
+        <v>0.06985351668594032</v>
       </c>
     </row>
     <row r="26">
@@ -3709,19 +3709,19 @@
         <v>3494719</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3462794</v>
+        <v>3463542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3523626</v>
+        <v>3523983</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9385192685202566</v>
+        <v>0.9385192685202565</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9299456656936333</v>
+        <v>0.9301464833140596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9462822378691428</v>
+        <v>0.9463781074172793</v>
       </c>
     </row>
     <row r="27">
